--- a/Datasets/Employee2.xlsx
+++ b/Datasets/Employee2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kartheek\Complete ML\Maths in ML\Matrices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github-d\AI-ML\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0092E71C-3545-4886-A69E-5DF1C159B286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1291EB5-CBB0-4FA5-B65F-5796F156E0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -351,7 +351,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -380,7 +380,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -388,7 +388,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -396,7 +396,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
